--- a/plots/basic_stats/two_var_stats/allmus_size_vs_governance_simpl-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_size_vs_governance_simpl-PC.xlsx
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>6.879</v>
+        <v>6.692</v>
       </c>
       <c r="C2">
-        <v>48.729</v>
+        <v>47.671</v>
       </c>
       <c r="D2">
-        <v>1.147</v>
+        <v>1.088</v>
       </c>
       <c r="E2">
-        <v>2.094</v>
+        <v>1.939</v>
       </c>
       <c r="F2">
-        <v>58.849</v>
+        <v>57.39</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>11.316</v>
+        <v>10.925</v>
       </c>
       <c r="C3">
-        <v>12.562</v>
+        <v>12.272</v>
       </c>
       <c r="D3">
-        <v>1.097</v>
+        <v>1.04</v>
       </c>
       <c r="E3">
-        <v>0.025</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>24.308</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>5.833</v>
+        <v>5.699</v>
       </c>
       <c r="C4">
-        <v>6.904</v>
+        <v>6.834</v>
       </c>
       <c r="D4">
-        <v>0.374</v>
+        <v>0.355</v>
       </c>
       <c r="E4">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="F4">
-        <v>13.136</v>
+        <v>12.912</v>
       </c>
     </row>
     <row r="5">
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.249</v>
+        <v>0.236</v>
       </c>
       <c r="C5">
-        <v>0.075</v>
+        <v>0.047</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.324</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.449</v>
+        <v>0.497</v>
       </c>
       <c r="C6">
-        <v>1.72</v>
+        <v>3.925</v>
       </c>
       <c r="D6">
-        <v>0.025</v>
+        <v>0.118</v>
       </c>
       <c r="E6">
-        <v>0.499</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F6">
-        <v>2.693</v>
+        <v>5.108</v>
       </c>
     </row>
     <row r="7">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>24.726</v>
+        <v>24.049</v>
       </c>
       <c r="C7">
-        <v>69.99</v>
+        <v>70.749</v>
       </c>
       <c r="D7">
-        <v>2.643</v>
+        <v>2.601</v>
       </c>
       <c r="E7">
-        <v>2.643</v>
+        <v>2.602</v>
       </c>
       <c r="F7">
-        <v>100.002</v>
+        <v>100.001</v>
       </c>
     </row>
   </sheetData>
